--- a/biology/Médecine/1511_en_santé_et_médecine/1511_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1511_en_santé_et_médecine/1511_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1511_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1511_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1511 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1511_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1511_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Le parlement adopte la première législation médicale de l'Angleterre, qui gard[era] force de loi jusqu'en 1948[1],[2] ».
-1497-1511 : le « tribunal de la Purge », juridiction chargée de diagnostiquer et d'écarter les lépreux « d'Auvergne et même d'ailleurs », siège dans un bâtiment spécifique, édifié par les consuls de Montferrand[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Le parlement adopte la première législation médicale de l'Angleterre, qui gard[era] force de loi jusqu'en 1948, ».
+1497-1511 : le « tribunal de la Purge », juridiction chargée de diagnostiquer et d'écarter les lépreux « d'Auvergne et même d'ailleurs », siège dans un bâtiment spécifique, édifié par les consuls de Montferrand.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1511_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1511_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Honoré Castellan (mort en 1569), médecin du roi Charles IX, beau-père du médecin Louis Laurens (1511-1574), et grand-père d'André Du Laurens (1558-1609), également médecin[4].
-Louis Laurens (mort en 1574), médecin à Tarascon, marié à Louise, fille du médecin de Charles IX Honoré Castellan (1511-1569), et père d'André (1558-1609), médecin à son tour au service de Marie de Médicis et d'Henri IV[4].
-Amatus Lusitanus (mort en 1568), médecin juif portugais, « rénovateur de la matière médicale[5] ».
-Michel Servet (mort en 1553), médecin et théologien aragonais, premier européen, avant Realdo Colombo, à décrire la circulation pulmonaire, dans un ouvrage rédigé en 1546 au plus tard, et imprimé en 1553[6],[7].
-1510 ou 1511[8] (ou 1499[9]) : Andrés Laguna (mort en 1559), médecin juif espagnol, auteur d'une traduction en castillan de la Matière médicale de Dioscoride imprimée en 1555 par Juan Latio à Anvers[8], au service du pape Jules III puis de Charles Quint et de Philippe II[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Honoré Castellan (mort en 1569), médecin du roi Charles IX, beau-père du médecin Louis Laurens (1511-1574), et grand-père d'André Du Laurens (1558-1609), également médecin.
+Louis Laurens (mort en 1574), médecin à Tarascon, marié à Louise, fille du médecin de Charles IX Honoré Castellan (1511-1569), et père d'André (1558-1609), médecin à son tour au service de Marie de Médicis et d'Henri IV.
+Amatus Lusitanus (mort en 1568), médecin juif portugais, « rénovateur de la matière médicale ».
+Michel Servet (mort en 1553), médecin et théologien aragonais, premier européen, avant Realdo Colombo, à décrire la circulation pulmonaire, dans un ouvrage rédigé en 1546 au plus tard, et imprimé en 1553,.
+1510 ou 1511 (ou 1499) : Andrés Laguna (mort en 1559), médecin juif espagnol, auteur d'une traduction en castillan de la Matière médicale de Dioscoride imprimée en 1555 par Juan Latio à Anvers, au service du pape Jules III puis de Charles Quint et de Philippe II.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1511_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1511_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tiberio Baccillieri (né en 1461), philosophe et médecin italien[10],[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tiberio Baccillieri (né en 1461), philosophe et médecin italien,.</t>
         </is>
       </c>
     </row>
